--- a/data/trans_dic/P23_11_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_11_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +705,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>4,79%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,12</t>
+          <t>0,56; 6,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,63</t>
+          <t>1,31; 6,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,44</t>
+          <t>0,53; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,72</t>
+          <t>0,78; 6,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,96</t>
+          <t>2,23; 9,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,96</t>
+          <t>3,47; 9,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,72</t>
+          <t>3,68; 8,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,21</t>
+          <t>4,16; 13,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 6,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 6,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 5,47</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 8,82</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,55</t>
+          <t>1,17; 11,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,48</t>
+          <t>1,1; 4,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,78</t>
+          <t>1,81; 8,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,79</t>
+          <t>1,96; 6,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,78</t>
+          <t>5,37; 13,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,09</t>
+          <t>3,28; 7,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,62</t>
+          <t>4,93; 8,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,45</t>
+          <t>4,7; 10,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 9,6</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 5,1</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 7,62</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 7,63</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,17</t>
+          <t>1,51; 12,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,0</t>
+          <t>0,99; 8,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,02</t>
+          <t>2,44; 8,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 14,17</t>
+          <t>2,08; 13,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,31</t>
+          <t>2,75; 7,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,35</t>
+          <t>4,0; 8,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,11</t>
+          <t>4,32; 8,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,73</t>
+          <t>3,73; 8,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 10,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 8,02</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 6,68</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 7,09</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 9,98</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,91</t>
+          <t>1,84; 5,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,39</t>
+          <t>2,62; 7,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,84</t>
+          <t>2,47; 7,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 8,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,45</t>
+          <t>5,66; 10,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,95</t>
+          <t>1,84; 5,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 4,85</t>
+          <t>3,55; 8,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 9,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 7,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 5,92</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 7,13</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 5,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 4,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 5,89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 6,52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,51; 8,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 6,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 7,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 8,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 6,57</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 4,89</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 5,92</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 6,64</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,24%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7361</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14001</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9211</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12340</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18817</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34370</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48338</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43575</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26178</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>48371</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>57549</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>55915</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1743; 20467</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5880; 27964</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3514; 20657</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3285; 26589</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8748; 37848</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20402; 54044</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30710; 72261</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24487; 76991</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13986; 46958</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>31579; 70714</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>39151; 82057</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>33725; 89070</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31199</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26275</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>55805</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36064</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>76331</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54487</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94587</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>75555</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>107530</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>80762</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>150392</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>111619</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10451; 104228</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12042; 53916</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27660; 129479</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19874; 61985</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>50673; 126391</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>38190; 83191</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>71159; 122788</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>49495; 114127</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>69386; 176526</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>55453; 115197</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>112915; 226543</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>79237; 157652</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27463</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20386</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45318</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45914</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35033</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52728</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>69086</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52792</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>62497</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>73113</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>114405</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>98706</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9553; 78863</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7894; 66288</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25413; 87728</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16767; 111517</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19980; 53541</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35669; 74648</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48940; 93905</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>32443; 78055</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>37918; 108885</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>50167; 112518</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>82743; 153924</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>62872; 167245</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>44314</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36491</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45318</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102867</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24106</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51121</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>147181</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>60596</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>96439</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24575; 70468</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21210; 59556</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25351; 75334</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>74373; 140478</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12907; 40409</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>33439; 82655</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>113228; 194316</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>41442; 89406</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>65161; 140316</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>110337</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>97152</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>110334</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>139637</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>233049</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>165691</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>212011</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>223043</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>343386</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>262843</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>322345</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>362680</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>71808; 176699</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>69013; 144840</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>76426; 190538</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>96133; 213009</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>186030; 294860</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>133689; 207893</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>175148; 254531</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>175532; 283650</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>280342; 430178</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>213593; 317528</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>268078; 393313</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>296646; 446126</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
